--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395C3CE5-65CB-4BE2-9B5D-420288D18F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A99E52-C85D-44C3-B2DE-828BEEBDE3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -302,13 +302,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
         <f>1/C2</f>
         <v>4.8543689320388349E-2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <f>C6/(D2*100)</f>
         <v>20.6</v>
       </c>
@@ -674,7 +674,7 @@
         <f>1/H2</f>
         <v>0.04</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <f>H6/(I2*100)</f>
         <v>25</v>
       </c>
@@ -688,7 +688,7 @@
         <f>1/M2</f>
         <v>0.2831858407079646</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="11">
         <f>M6/(N2*100)</f>
         <v>3.53125</v>
       </c>
@@ -702,7 +702,7 @@
         <f>1/R2</f>
         <v>0.2</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="11">
         <f>R6/(S2*100)</f>
         <v>5</v>
       </c>
@@ -716,7 +716,7 @@
         <f>1/W2</f>
         <v>0.3</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="11">
         <f>W6/(X2*100)</f>
         <v>3.3333333333333335</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="AA2" s="6">
         <v>1</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="11">
         <v>1</v>
       </c>
       <c r="AC2" s="7">
@@ -823,17 +823,17 @@
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>1.2621359223300972E-2</v>
+        <v>1.7475728155339806E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
         <v>0</v>
@@ -841,8 +841,8 @@
       <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="10">
         <f>N6*N2</f>
         <v>0</v>
@@ -850,8 +850,8 @@
       <c r="P5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="10">
         <f>S6*S2</f>
         <v>0</v>
@@ -859,8 +859,8 @@
       <c r="U5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="13"/>
       <c r="X5" s="10">
         <f>X6*X2</f>
         <v>0</v>
@@ -868,11 +868,11 @@
       <c r="Z5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>1.2621359223300972E-2</v>
+        <v>1.7475728155339806E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.12621359223300971</v>
+        <v>0.17475728155339806</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="9">
-        <f>IF(C8&lt;&gt;0,B8/C8,0)</f>
+        <f t="shared" ref="D8:D27" si="3">IF(C8&lt;&gt;0,B8/C8,0)</f>
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="9">
-        <f>IF(H8&lt;&gt;0,G8/H8,0)</f>
+        <f t="shared" ref="I8:I16" si="4">IF(H8&lt;&gt;0,G8/H8,0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1044,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="N8" s="9">
-        <f>IF(M8&lt;&gt;0,L8/M8,0)</f>
+        <f t="shared" ref="N8:N14" si="5">IF(M8&lt;&gt;0,L8/M8,0)</f>
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
@@ -1074,13 +1074,15 @@
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>10</v>
+      </c>
       <c r="C9" s="8">
         <v>10</v>
       </c>
       <c r="D9" s="9">
-        <f>IF(C9&lt;&gt;0,B9/C9,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
@@ -1090,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="9">
-        <f>IF(H9&lt;&gt;0,G9/H9,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1101,7 +1103,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="9">
-        <f>IF(M9&lt;&gt;0,L9/M9,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="9">
-        <f>IF(C10&lt;&gt;0,B10/C10,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1125,7 +1127,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="9">
-        <f>IF(H10&lt;&gt;0,G10/H10,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1136,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="9">
-        <f>IF(M10&lt;&gt;0,L10/M10,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="9">
-        <f>IF(C11&lt;&gt;0,B11/C11,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1160,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="9">
-        <f>IF(H11&lt;&gt;0,G11/H11,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1171,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="N11" s="9">
-        <f>IF(M11&lt;&gt;0,L11/M11,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="9">
-        <f>IF(C12&lt;&gt;0,B12/C12,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1195,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="9">
-        <f>IF(H12&lt;&gt;0,G12/H12,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1206,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="N12" s="9">
-        <f>IF(M12&lt;&gt;0,L12/M12,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1219,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="9">
-        <f>IF(C13&lt;&gt;0,B13/C13,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1230,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="9">
-        <f>IF(H13&lt;&gt;0,G13/H13,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1241,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="N13" s="9">
-        <f>IF(M13&lt;&gt;0,L13/M13,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1254,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="9">
-        <f>IF(C14&lt;&gt;0,B14/C14,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1265,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="9">
-        <f>IF(H14&lt;&gt;0,G14/H14,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -1276,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="9">
-        <f>IF(M14&lt;&gt;0,L14/M14,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1289,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="9">
-        <f>IF(C15&lt;&gt;0,B15/C15,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1300,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="9">
-        <f>IF(H15&lt;&gt;0,G15/H15,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1313,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <f>IF(C16&lt;&gt;0,B16/C16,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1324,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="9">
-        <f>IF(H16&lt;&gt;0,G16/H16,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1339,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="9">
-        <f>IF(C17&lt;&gt;0,B17/C17,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1352,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="9">
-        <f>IF(C18&lt;&gt;0,B18/C18,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1365,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="9">
-        <f>IF(C19&lt;&gt;0,B19/C19,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1378,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="9">
-        <f>IF(C20&lt;&gt;0,B20/C20,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1391,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="9">
-        <f>IF(C21&lt;&gt;0,B21/C21,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1404,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="9">
-        <f>IF(C22&lt;&gt;0,B22/C22,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1417,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="9">
-        <f>IF(C23&lt;&gt;0,B23/C23,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="9">
-        <f>IF(C24&lt;&gt;0,B24/C24,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1443,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="9">
-        <f>IF(C25&lt;&gt;0,B25/C25,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1456,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="9">
-        <f>IF(C26&lt;&gt;0,B26/C26,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="9">
-        <f>IF(C27&lt;&gt;0,B27/C27,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A99E52-C85D-44C3-B2DE-828BEEBDE3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9A702-A5E1-4C89-8BFA-E6591EEB7F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>1.7475728155339806E-2</v>
+        <v>2.5475728155339807E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
       <c r="G6" s="8">
         <f>SUM(G7:G16)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H7:H16)</f>
@@ -904,7 +904,7 @@
       </c>
       <c r="I6" s="9">
         <f>IF(H6&lt;&gt;0,G6/H6,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>13</v>
@@ -1028,13 +1028,15 @@
       <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>20</v>
+      </c>
       <c r="H8" s="8">
         <v>20</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" ref="I8:I16" si="4">IF(H8&lt;&gt;0,G8/H8,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>42</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9A702-A5E1-4C89-8BFA-E6591EEB7F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01A1E36-3EB2-45F4-968B-DB9A196D1043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>1.7475728155339806E-2</v>
+        <v>2.2330097087378643E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -836,7 +836,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
@@ -845,7 +845,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="10">
         <f>N6*N2</f>
-        <v>0</v>
+        <v>4.2477876106194697E-2</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>2.5475728155339807E-2</v>
+        <v>8.0807973193573329E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,14 +889,14 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.17475728155339806</v>
+        <v>0.22330097087378642</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(G7:G16)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H7:H16)</f>
@@ -904,14 +904,14 @@
       </c>
       <c r="I6" s="9">
         <f>IF(H6&lt;&gt;0,G6/H6,0)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="8">
         <f>SUM(L7:L14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M6" s="8">
         <f>SUM(M7:M14)</f>
@@ -919,7 +919,7 @@
       </c>
       <c r="N6" s="9">
         <f>IF(M6&lt;&gt;0,L6/M6,0)</f>
-        <v>0</v>
+        <v>0.13274336283185842</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>13</v>
@@ -969,24 +969,28 @@
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
       <c r="H7" s="8">
         <v>20</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" ref="I7" si="1">IF(H7&lt;&gt;0,G7/H7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>15</v>
+      </c>
       <c r="M7" s="8">
         <v>15</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" ref="N7" si="2">IF(M7&lt;&gt;0,L7/M7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>50</v>
@@ -1351,13 +1355,15 @@
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <v>10</v>
+      </c>
       <c r="C18" s="8">
         <v>10</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01A1E36-3EB2-45F4-968B-DB9A196D1043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3468964-367C-4276-A0BB-3D97B7E08427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3468964-367C-4276-A0BB-3D97B7E08427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9A6D2-9616-423B-A81B-DBE2ECA2CF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>2.2330097087378643E-2</v>
+        <v>1.7475728155339806E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>8.0807973193573329E-2</v>
+        <v>7.5953604261534496E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.22330097087378642</v>
+        <v>0.17475728155339806</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -1080,15 +1080,13 @@
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
-        <v>10</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8">
         <v>10</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9A6D2-9616-423B-A81B-DBE2ECA2CF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593A271-D0EE-4042-9D1A-2A739844CC70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>1.7475728155339806E-2</v>
+        <v>2.7184466019417475E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>7.5953604261534496E-2</v>
+        <v>8.5662342125612162E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.17475728155339806</v>
+        <v>0.27184466019417475</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -1080,13 +1080,15 @@
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>10</v>
+      </c>
       <c r="C9" s="8">
         <v>10</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
@@ -1115,13 +1117,15 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>10</v>
+      </c>
       <c r="C10" s="8">
         <v>10</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593A271-D0EE-4042-9D1A-2A739844CC70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA3878F-99C4-43B4-A6FB-7C3FCAD06353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>2.7184466019417475E-2</v>
+        <v>3.6893203883495145E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>8.5662342125612162E-2</v>
+        <v>9.5371079989689841E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.27184466019417475</v>
+        <v>0.36893203883495146</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -1372,26 +1372,30 @@
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
       <c r="C19" s="8">
         <v>10</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8">
+        <v>10</v>
+      </c>
       <c r="C20" s="8">
         <v>10</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA3878F-99C4-43B4-A6FB-7C3FCAD06353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E8808-B025-40B4-AF65-BD3A11F136CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>3.6893203883495145E-2</v>
+        <v>4.1747572815533984E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>9.5371079989689841E-2</v>
+        <v>0.10022544892172869</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.36893203883495146</v>
+        <v>0.41747572815533979</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -1154,13 +1154,15 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
       <c r="C11" s="8">
         <v>10</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>34</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E8808-B025-40B4-AF65-BD3A11F136CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8069FD3-BCEE-4586-8BC5-865FCDE1C0F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="10">
         <f>N6*N2</f>
-        <v>4.2477876106194697E-2</v>
+        <v>7.9292035398230085E-2</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.10022544892172869</v>
+        <v>0.13703960821376407</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
       </c>
       <c r="L6" s="8">
         <f>SUM(L7:L14)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8">
         <f>SUM(M7:M14)</f>
@@ -919,7 +919,7 @@
       </c>
       <c r="N6" s="9">
         <f>IF(M6&lt;&gt;0,L6/M6,0)</f>
-        <v>0.13274336283185842</v>
+        <v>0.24778761061946902</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>13</v>
@@ -1045,13 +1045,15 @@
       <c r="K8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>13</v>
+      </c>
       <c r="M8" s="8">
         <v>15</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" ref="N8:N14" si="5">IF(M8&lt;&gt;0,L8/M8,0)</f>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>51</v>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8069FD3-BCEE-4586-8BC5-865FCDE1C0F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E8D24-6E89-449F-8D74-67166D7A4373}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="10">
         <f>N6*N2</f>
-        <v>7.9292035398230085E-2</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.13703960821376407</v>
+        <v>0.1993404931695163</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
       </c>
       <c r="L6" s="8">
         <f>SUM(L7:L14)</f>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M6" s="8">
         <f>SUM(M7:M14)</f>
@@ -919,7 +919,7 @@
       </c>
       <c r="N6" s="9">
         <f>IF(M6&lt;&gt;0,L6/M6,0)</f>
-        <v>0.24778761061946902</v>
+        <v>0.44247787610619471</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>13</v>
@@ -1106,13 +1106,15 @@
       <c r="K9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>11</v>
+      </c>
       <c r="M9" s="8">
         <v>15</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1143,13 +1145,15 @@
       <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8">
+        <v>11</v>
+      </c>
       <c r="M10" s="8">
         <v>13</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E8D24-6E89-449F-8D74-67166D7A4373}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356859F4-911F-4B55-BBE4-E1031596F08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>4.1747572815533984E-2</v>
+        <v>5.6310679611650483E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -836,7 +836,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
-        <v>1.6E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
@@ -854,7 +854,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="10">
         <f>S6*S2</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.1993404931695163</v>
+        <v>0.42990359996563277</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,14 +889,14 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.41747572815533979</v>
+        <v>0.56310679611650483</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(G7:G16)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H7:H16)</f>
@@ -904,7 +904,7 @@
       </c>
       <c r="I6" s="9">
         <f>IF(H6&lt;&gt;0,G6/H6,0)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>13</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="Q6" s="8">
         <f>SUM(Q7:Q8)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R6" s="8">
         <f>SUM(R7:R8)</f>
@@ -934,7 +934,7 @@
       </c>
       <c r="S6" s="9">
         <f>IF(R6&lt;&gt;0,Q6/R6,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>13</v>
@@ -995,13 +995,15 @@
       <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="8">
+        <v>30</v>
+      </c>
       <c r="R7" s="8">
         <v>30</v>
       </c>
       <c r="S7" s="9">
         <f>IF(R7&lt;&gt;0,Q7/R7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>50</v>
@@ -1058,13 +1060,15 @@
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="8">
+        <v>70</v>
+      </c>
       <c r="R8" s="8">
         <v>70</v>
       </c>
       <c r="S8" s="9">
         <f>IF(R8&lt;&gt;0,Q8/R8,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>51</v>
@@ -1095,13 +1099,15 @@
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>20</v>
+      </c>
       <c r="H9" s="8">
         <v>20</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>43</v>
@@ -1134,13 +1140,15 @@
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
       <c r="H10" s="8">
         <v>20</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>44</v>
@@ -1197,13 +1205,15 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
       <c r="C12" s="8">
         <v>10</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>35</v>
@@ -1410,13 +1420,15 @@
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8">
+        <v>10</v>
+      </c>
       <c r="C21" s="8">
         <v>10</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,13 +1487,15 @@
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <v>10</v>
+      </c>
       <c r="C26" s="8">
         <v>10</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356859F4-911F-4B55-BBE4-E1031596F08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7E15D-D09F-4018-84A2-F002FBDB28E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="10">
         <f>N6*N2</f>
-        <v>0.1415929203539823</v>
+        <v>0.17840707964601771</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>14</v>
@@ -854,7 +854,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="10">
         <f>S6*S2</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.42990359996563277</v>
+        <v>0.44671775925766821</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
       </c>
       <c r="L6" s="8">
         <f>SUM(L7:L14)</f>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M6" s="8">
         <f>SUM(M7:M14)</f>
@@ -919,14 +919,14 @@
       </c>
       <c r="N6" s="9">
         <f>IF(M6&lt;&gt;0,L6/M6,0)</f>
-        <v>0.44247787610619471</v>
+        <v>0.55752212389380529</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="8">
         <f>SUM(Q7:Q8)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="R6" s="8">
         <f>SUM(R7:R8)</f>
@@ -934,7 +934,7 @@
       </c>
       <c r="S6" s="9">
         <f>IF(R6&lt;&gt;0,Q6/R6,0)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>13</v>
@@ -1061,14 +1061,14 @@
         <v>51</v>
       </c>
       <c r="Q8" s="8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R8" s="8">
         <v>70</v>
       </c>
       <c r="S8" s="9">
         <f>IF(R8&lt;&gt;0,Q8/R8,0)</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>51</v>
@@ -1192,13 +1192,15 @@
       <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8">
+        <v>13</v>
+      </c>
       <c r="M11" s="8">
         <v>13</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7E15D-D09F-4018-84A2-F002FBDB28E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6FCF2-6F26-45B3-8EE4-05DFB225DF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>5.6310679611650483E-2</v>
+        <v>7.5728155339805828E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -836,7 +836,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
-        <v>3.2000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
@@ -845,7 +845,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="10">
         <f>N6*N2</f>
-        <v>0.17840707964601771</v>
+        <v>0.21805309734513273</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.44671775925766821</v>
+        <v>0.52178125268493858</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,14 +889,14 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.56310679611650483</v>
+        <v>0.75728155339805825</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(G7:G16)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H7:H16)</f>
@@ -904,14 +904,14 @@
       </c>
       <c r="I6" s="9">
         <f>IF(H6&lt;&gt;0,G6/H6,0)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="8">
         <f>SUM(L7:L14)</f>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="M6" s="8">
         <f>SUM(M7:M14)</f>
@@ -919,7 +919,7 @@
       </c>
       <c r="N6" s="9">
         <f>IF(M6&lt;&gt;0,L6/M6,0)</f>
-        <v>0.55752212389380529</v>
+        <v>0.68141592920353977</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>13</v>
@@ -1181,13 +1181,15 @@
       <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
       <c r="H11" s="8">
         <v>20</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>45</v>
@@ -1220,37 +1222,43 @@
       <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>20</v>
+      </c>
       <c r="H12" s="8">
         <v>20</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>14</v>
+      </c>
       <c r="M12" s="8">
         <v>15</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
       <c r="C13" s="8">
         <v>10</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>36</v>
@@ -1279,13 +1287,15 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
       <c r="C14" s="8">
         <v>10</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>37</v>
@@ -1437,26 +1447,30 @@
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8">
+        <v>10</v>
+      </c>
       <c r="C22" s="8">
         <v>10</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <v>10</v>
+      </c>
       <c r="C23" s="8">
         <v>10</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6FCF2-6F26-45B3-8EE4-05DFB225DF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2616523-1100-4216-842B-72B4434B9734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="10">
         <f>D6*D2</f>
-        <v>7.5728155339805828E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -836,7 +836,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
@@ -845,7 +845,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="10">
         <f>N6*N2</f>
-        <v>0.21805309734513273</v>
+        <v>0.29168141592920355</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.52178125268493858</v>
+        <v>0.63568141592920357</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B6" s="8">
         <f>SUM(B7:B27)</f>
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(C7:C27)</f>
@@ -889,14 +889,14 @@
       </c>
       <c r="D6" s="9">
         <f>IF(C6&lt;&gt;0,B6/C6,0)</f>
-        <v>0.75728155339805825</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(G7:G16)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H7:H16)</f>
@@ -904,14 +904,14 @@
       </c>
       <c r="I6" s="9">
         <f>IF(H6&lt;&gt;0,G6/H6,0)</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="8">
         <f>SUM(L7:L14)</f>
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="M6" s="8">
         <f>SUM(M7:M14)</f>
@@ -919,7 +919,7 @@
       </c>
       <c r="N6" s="9">
         <f>IF(M6&lt;&gt;0,L6/M6,0)</f>
-        <v>0.68141592920353977</v>
+        <v>0.91150442477876104</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>13</v>
@@ -1263,24 +1263,28 @@
       <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>20</v>
+      </c>
       <c r="H13" s="8">
         <v>20</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8">
+        <v>13</v>
+      </c>
       <c r="M13" s="8">
         <v>14</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1311,50 +1315,58 @@
       <c r="K14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8">
+        <v>13</v>
+      </c>
       <c r="M14" s="8">
         <v>13</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>10</v>
+      </c>
       <c r="C15" s="8">
         <v>10</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>20</v>
+      </c>
       <c r="H15" s="8">
         <v>20</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <v>10</v>
+      </c>
       <c r="C16" s="8">
         <v>10</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>39</v>
@@ -1477,26 +1489,30 @@
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8">
+        <v>10</v>
+      </c>
       <c r="C24" s="8">
         <v>10</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8">
+        <v>10</v>
+      </c>
       <c r="C25" s="8">
         <v>10</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +1534,15 @@
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8">
+        <v>10</v>
+      </c>
       <c r="C27" s="8">
         <v>10</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2616523-1100-4216-842B-72B4434B9734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396EC04-A19D-4D20-9665-F7D7B1BACDCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
-        <v>6.4000000000000001E-2</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.63568141592920357</v>
+        <v>0.64368141592920358</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
       <c r="G6" s="8">
         <f>SUM(G7:G16)</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H7:H16)</f>
@@ -904,7 +904,7 @@
       </c>
       <c r="I6" s="9">
         <f>IF(H6&lt;&gt;0,G6/H6,0)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>13</v>
@@ -1371,13 +1371,15 @@
       <c r="F16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8">
+        <v>20</v>
+      </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396EC04-A19D-4D20-9665-F7D7B1BACDCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D494358-2C5C-4CB1-B56D-884BA52E3847}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="10">
         <f>X6*X2</f>
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.64368141592920358</v>
+        <v>0.9136814159292036</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
       </c>
       <c r="V6" s="8">
         <f>SUM(V7:V8)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W6" s="8">
         <f>SUM(W7:W8)</f>
@@ -949,7 +949,7 @@
       </c>
       <c r="X6" s="9">
         <f>IF(W6&lt;&gt;0,V6/W6,0)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1008,13 +1008,15 @@
       <c r="U7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="8"/>
+      <c r="V7" s="8">
+        <v>30</v>
+      </c>
       <c r="W7" s="8">
         <v>30</v>
       </c>
       <c r="X7" s="9">
         <f>IF(W7&lt;&gt;0,V7/W7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1073,13 +1075,15 @@
       <c r="U8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="8"/>
+      <c r="V8" s="8">
+        <v>60</v>
+      </c>
       <c r="W8" s="8">
         <v>70</v>
       </c>
       <c r="X8" s="9">
         <f>IF(W8&lt;&gt;0,V8/W8,0)</f>
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alf\Desktop\x86\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D494358-2C5C-4CB1-B56D-884BA52E3847}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A978940-F31A-4F97-8E9B-B721D669CA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="2580" xr2:uid="{BEB47269-8309-432F-A838-264E8E734028}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="10">
         <f>I6*I2</f>
-        <v>7.2000000000000008E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>14</v>
@@ -863,7 +863,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="10">
         <f>X6*X2</f>
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>14</v>
@@ -872,7 +872,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="10">
         <f>D5+I5+N5+S5+X5</f>
-        <v>0.9136814159292036</v>
+        <v>0.74168141592920356</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
       <c r="G6" s="8">
         <f>SUM(G7:G16)</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H7:H16)</f>
@@ -904,7 +904,7 @@
       </c>
       <c r="I6" s="9">
         <f>IF(H6&lt;&gt;0,G6/H6,0)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>13</v>
@@ -941,7 +941,7 @@
       </c>
       <c r="V6" s="8">
         <f>SUM(V7:V8)</f>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W6" s="8">
         <f>SUM(W7:W8)</f>
@@ -949,7 +949,7 @@
       </c>
       <c r="X6" s="9">
         <f>IF(W6&lt;&gt;0,V6/W6,0)</f>
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1075,15 +1075,13 @@
       <c r="U8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="8">
-        <v>60</v>
-      </c>
+      <c r="V8" s="8"/>
       <c r="W8" s="8">
         <v>70</v>
       </c>
       <c r="X8" s="9">
         <f>IF(W8&lt;&gt;0,V8/W8,0)</f>
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1308,13 +1306,15 @@
       <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>20</v>
+      </c>
       <c r="H14" s="8">
         <v>20</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>48</v>
